--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A89DE4-7AC5-40D4-9DBE-AFAF8ACB4F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405EDD6-DE23-4A6F-9DE2-B14DE7B02C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -25,7 +36,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -38,7 +49,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -60,7 +71,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -73,7 +84,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -97,8 +108,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
-</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -107,7 +117,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">fill with DONE or n/a after regression testing
+          <t xml:space="preserve">
+fill with DONE or n/a after regression testing
 </t>
         </r>
       </text>
@@ -606,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +795,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1279,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1400,6 +1426,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,13 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,34 +1498,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,20 +1531,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,95 +1636,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,16 +1962,16 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
@@ -1945,14 +1984,14 @@
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H2" s="51" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1961,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +2011,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +2022,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="22"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -1995,21 +2034,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -2017,7 +2056,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
         <v>58</v>
       </c>
@@ -2025,35 +2064,35 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="33"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2068,7 +2107,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2083,7 +2122,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
@@ -2099,7 +2138,7 @@
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="34"/>
     </row>
   </sheetData>
@@ -2124,25 +2163,25 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2150,34 +2189,34 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="G5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
@@ -2190,35 +2229,35 @@
       <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="74" t="s">
+      <c r="J6" s="65"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="74"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="56"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="69" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="14" t="s">
         <v>77</v>
       </c>
@@ -2228,16 +2267,16 @@
       <c r="K7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="58"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>65</v>
@@ -2257,16 +2296,16 @@
       <c r="K8" s="36">
         <v>15</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="71"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="77"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2288,16 +2327,16 @@
       <c r="K9" s="36">
         <v>15</v>
       </c>
-      <c r="L9" s="68" t="s">
+      <c r="L9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="69"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>68</v>
@@ -2317,16 +2356,16 @@
       <c r="K10" s="8">
         <v>15</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="69"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>69</v>
@@ -2346,16 +2385,16 @@
       <c r="K11" s="8">
         <v>15</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="69"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2377,16 +2416,16 @@
       <c r="K12" s="8">
         <v>20</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="77"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>71</v>
@@ -2406,16 +2445,16 @@
       <c r="K13" s="8">
         <v>-25</v>
       </c>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="69"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2429,14 +2468,14 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>75</v>
@@ -2448,14 +2487,14 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
-    </row>
-    <row r="16" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4"/>
       <c r="E16" s="40" t="s">
         <v>76</v>
@@ -2465,10 +2504,10 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
@@ -2480,10 +2519,10 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
@@ -2497,10 +2536,10 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
@@ -2512,10 +2551,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="77"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
@@ -2525,7 +2564,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
@@ -2533,25 +2572,15 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="I6:K6"/>
@@ -2568,6 +2597,16 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2581,30 +2620,30 @@
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2612,37 +2651,37 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -2653,43 +2692,43 @@
         <v>26</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="79" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="81"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="52">
+      <c r="O6" s="85"/>
+      <c r="P6" s="86"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="62">
         <v>1</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="79" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="73"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14" t="s">
         <v>77</v>
       </c>
@@ -2699,15 +2738,15 @@
       <c r="M7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="84"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="64"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
@@ -2732,15 +2771,15 @@
       <c r="M8" s="36">
         <v>15</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="69"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="84"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="64"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="2" t="s">
         <v>93</v>
       </c>
@@ -2763,15 +2802,15 @@
       <c r="M9" s="36">
         <v>15</v>
       </c>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="84"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="64"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="2" t="s">
         <v>94</v>
       </c>
@@ -2794,15 +2833,15 @@
       <c r="M10" s="8">
         <v>15</v>
       </c>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="84"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="64"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="2" t="s">
         <v>95</v>
       </c>
@@ -2825,15 +2864,15 @@
       <c r="M11" s="8">
         <v>15</v>
       </c>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="85"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
@@ -2856,20 +2895,20 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="52">
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="62">
         <v>2</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="122" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="11">
@@ -2891,48 +2930,48 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="123">
         <v>7</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="124">
         <v>7</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="124">
         <v>3</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="125">
         <v>-1</v>
       </c>
-      <c r="N14" s="82" t="s">
+      <c r="N14" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
@@ -2957,16 +2996,16 @@
       <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="2" t="s">
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="122" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="14">
@@ -2988,79 +3027,79 @@
       <c r="M16" s="8">
         <v>0.1</v>
       </c>
-      <c r="N16" s="82" t="s">
+      <c r="N16" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="2" t="s">
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="123">
         <v>10</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="124">
         <v>10</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
+      <c r="I17" s="125"/>
+      <c r="J17" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="124">
         <v>3</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="82" t="s">
+      <c r="N17" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="2" t="s">
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="123">
         <v>11</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="124">
         <v>11</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="125"/>
+      <c r="J18" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="124">
         <v>3</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="82" t="s">
+      <c r="N18" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="52">
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="62">
         <v>3</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="2"/>
       <c r="G19" s="14">
         <v>12</v>
@@ -3071,13 +3110,13 @@
       <c r="K19" s="21"/>
       <c r="L19" s="8"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="69"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="84"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="53"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="64"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="2"/>
       <c r="G20" s="14">
         <v>13</v>
@@ -3088,13 +3127,13 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="69"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="84"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="53"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="64"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="2"/>
       <c r="G21" s="14">
         <v>14</v>
@@ -3105,13 +3144,13 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="69"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
-      <c r="C22" s="84"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="53"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="2"/>
       <c r="G22" s="14">
         <v>15</v>
@@ -3122,13 +3161,13 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="69"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
-      <c r="C23" s="84"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="64"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="2"/>
       <c r="G23" s="14">
         <v>16</v>
@@ -3139,13 +3178,13 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="69"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="85"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="53"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="63"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="2"/>
       <c r="G24" s="14">
         <v>17</v>
@@ -3156,15 +3195,15 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="69"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="52">
+      <c r="N24" s="52"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="53"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="62">
         <v>4</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="79" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3179,27 +3218,27 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="69"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="84"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="53"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="64"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
-      <c r="C27" s="84"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="64"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="54"/>
-      <c r="C28" s="84"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="64"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3212,9 +3251,9 @@
       <c r="M28" s="5"/>
       <c r="N28" s="28"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-      <c r="C29" s="84"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="64"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
@@ -3225,36 +3264,15 @@
       <c r="M29" s="39"/>
       <c r="N29" s="29"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="85"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="N24:P24"/>
@@ -3271,6 +3289,27 @@
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3289,19 +3328,19 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3309,51 +3348,51 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="55" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="92"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="58"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="114"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="14" t="s">
         <v>77</v>
       </c>
@@ -3363,20 +3402,20 @@
       <c r="H5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="111" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -3394,21 +3433,21 @@
       <c r="H6" s="36">
         <v>15</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="100"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="20" t="s">
         <v>106</v>
       </c>
@@ -3433,12 +3472,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <f t="shared" ref="B8:B12" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="20" t="s">
         <v>43</v>
       </c>
@@ -3454,21 +3493,21 @@
       <c r="H8" s="8">
         <v>20</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="100"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="20"/>
       <c r="E9" s="7" t="s">
         <v>107</v>
@@ -3482,21 +3521,21 @@
       <c r="H9" s="36">
         <v>15</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="20" t="s">
         <v>23</v>
       </c>
@@ -3512,21 +3551,21 @@
       <c r="H10" s="8">
         <v>20</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="68"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="100"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="20" t="s">
         <v>23</v>
       </c>
@@ -3542,21 +3581,21 @@
       <c r="H11" s="8">
         <v>0.1</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="68"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
@@ -3572,16 +3611,16 @@
       <c r="H12" s="8">
         <v>-1</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="68"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -3596,7 +3635,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>45</v>
       </c>
@@ -3608,100 +3647,100 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+    <row r="16" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="114"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="111" t="s">
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="114"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="113"/>
-    </row>
-    <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107" t="s">
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
+    </row>
+    <row r="17" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="119" t="s">
+      <c r="G17" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="115" t="s">
+      <c r="H17" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="109" t="s">
+      <c r="I17" s="96"/>
+      <c r="J17" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K17" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="110" t="s">
+      <c r="L17" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="120" t="s">
+      <c r="M17" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="109" t="s">
+      <c r="N17" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="109" t="s">
+      <c r="O17" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="88" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="110"/>
-    </row>
-    <row r="19" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+    </row>
+    <row r="19" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>41</v>
       </c>
@@ -3720,10 +3759,10 @@
       <c r="G19" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="105" t="s">
+      <c r="H19" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="106"/>
+      <c r="I19" s="101"/>
       <c r="J19" s="2">
         <v>3</v>
       </c>
@@ -3746,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F20" s="44" t="s">
         <v>111</v>
       </c>
@@ -3757,24 +3796,7 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
@@ -3791,7 +3813,24 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3800,6 +3839,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3943,22 +3997,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3974,21 +4030,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>